--- a/biology/Botanique/Harungana_madagascariensis/Harungana_madagascariensis.xlsx
+++ b/biology/Botanique/Harungana_madagascariensis/Harungana_madagascariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harungana madagascariensis, aussi appelé bois harongue ou haronga, est une espèce de plantes à fleurs genre Harungana et de la famille des Hypericaceae. C'est un arbuste originaire de Madagascar. Cet arbre fruitier pousse dans les forêts d'Afrique tropicale. Au Cameroun, cette plante est appelée Febai par les Babungo.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harunga madagascariensis est un arbre fruitier commun, très répandu en Afrique tropicale et à Madagascar. On le retrouve principalement dans les marécages du Bas-Congo, où il pousse sur des sols pauvres, en zone forestière, mais aussi dans les savanes. On le retrouve à Madagascar, au Nigeria, au Zimbabwe, au Sénégal, en République démocratique du Congo, au Burundi, au Rwanda, en Guinée équatoriale, au Sierra Leone, au Kenya, au Mozambique ou encore au Cameroun. Cet arbuste ou arbre à feuillage persistant atteint généralement une hauteur de 4 à 7 mètres maximum, mais certains spécimens peuvent parfois atteindre près de 25 mètres. Harunga madagascariensis se présente sous la forme d'un arbre lisse ou écailleux, ses branches sont en forme de « roues de vélo »[3], tandis que ses feuilles sont entières, opposées, simples et sans stipules. Elles possèdent de nombreuses nervures latérales serrées, qui sont peu visibles. Ses jeunes fruits en drupes, de 2 à 4 millimètres de diamètre, sont de couleur orange et deviennent rouges à maturité, atteignant alors 25 à 30 centimètres de diamètre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harunga madagascariensis est un arbre fruitier commun, très répandu en Afrique tropicale et à Madagascar. On le retrouve principalement dans les marécages du Bas-Congo, où il pousse sur des sols pauvres, en zone forestière, mais aussi dans les savanes. On le retrouve à Madagascar, au Nigeria, au Zimbabwe, au Sénégal, en République démocratique du Congo, au Burundi, au Rwanda, en Guinée équatoriale, au Sierra Leone, au Kenya, au Mozambique ou encore au Cameroun. Cet arbuste ou arbre à feuillage persistant atteint généralement une hauteur de 4 à 7 mètres maximum, mais certains spécimens peuvent parfois atteindre près de 25 mètres. Harunga madagascariensis se présente sous la forme d'un arbre lisse ou écailleux, ses branches sont en forme de « roues de vélo », tandis que ses feuilles sont entières, opposées, simples et sans stipules. Elles possèdent de nombreuses nervures latérales serrées, qui sont peu visibles. Ses jeunes fruits en drupes, de 2 à 4 millimètres de diamètre, sont de couleur orange et deviennent rouges à maturité, atteignant alors 25 à 30 centimètres de diamètre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Harunga madagascariensis est utilisé quotidiennement, dans divers domaines tels que le bâtiment, la médecine, l'alimentation, le textile, etc.  :
 Construction : le tronc est utilisé dans la construction de maisons au Bas-Congo ;
